--- a/20_営業/03_個別開発/MD050/MD050_COK_024_A20_控除データアップロード（補足資料）.xlsx
+++ b/20_営業/03_個別開発/MD050/MD050_COK_024_A20_控除データアップロード（補足資料）.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_18201～18300\E_本稼動_18280【収益認識】控除データアップロード機能改修\20_成果物\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="18990" windowHeight="11880" tabRatio="806" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="18990" windowHeight="11880" tabRatio="806"/>
   </bookViews>
   <sheets>
     <sheet name="販売控除データ 項目定義" sheetId="31" r:id="rId1"/>
     <sheet name="販売控除データ ファイルレイアウト" sheetId="32" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="96">
   <si>
     <t>顧客コード</t>
   </si>
@@ -132,22 +137,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>5555555555</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>8888888888</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>9999999999</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>9999999999</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>X000001訂正用</t>
   </si>
   <si>
@@ -242,10 +231,6 @@
       <t>スウリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>控除税額</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>控除税額</t>
@@ -263,88 +248,301 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>入力必須
-整数チェック</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>データ種類</t>
   </si>
   <si>
+    <t>年間契約①</t>
+  </si>
+  <si>
+    <t>入金時値引</t>
+  </si>
+  <si>
+    <t>シーズン契約</t>
+  </si>
+  <si>
+    <t>3664</t>
+  </si>
+  <si>
+    <t>3532</t>
+  </si>
+  <si>
+    <t>3621</t>
+  </si>
+  <si>
+    <t>3551</t>
+  </si>
+  <si>
+    <t>3508</t>
+  </si>
+  <si>
+    <t>備考</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>控除用チェーンコード</t>
+    <rPh sb="0" eb="2">
+      <t>コウジョ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5555555555</t>
+  </si>
+  <si>
+    <t>8888888888</t>
+  </si>
+  <si>
+    <t>9999999999</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>補填</t>
+    <rPh sb="0" eb="2">
+      <t>ホテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問屋マージン</t>
+    <rPh sb="0" eb="2">
+      <t>トンヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拡売</t>
+    <rPh sb="0" eb="2">
+      <t>カクバイバイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問屋マージン減額</t>
+    <rPh sb="0" eb="2">
+      <t>トンヤ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">任意
+</t>
+    </r>
     <r>
       <rPr>
-        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>※ただし、上記品目で使用できない単位は不可
+データ種類に紐づく控除タイプが'030', '040'の場合、'本', 'BL', 'CS' 以外は不可</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒンモク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>コウジョ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="1">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">任意
+</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FFFF00FF"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>データ種類</t>
+      <t>※小数2桁まで指定可</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>に紐付く控除タイプが</t>
-    </r>
-    <rPh sb="3" eb="5">
+    <rPh sb="0" eb="2">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウスウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>任意 (データ種類に関わらず任意で指定可)
+※小数2桁まで指定可</t>
+    <rPh sb="7" eb="9">
       <t>シュルイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>年間契約①</t>
-  </si>
-  <si>
-    <t>入金時値引</t>
-  </si>
-  <si>
-    <t>シーズン契約</t>
-  </si>
-  <si>
-    <t>3664</t>
-  </si>
-  <si>
-    <t>3532</t>
-  </si>
-  <si>
-    <t>3621</t>
-  </si>
-  <si>
-    <t>3551</t>
-  </si>
-  <si>
-    <t>3508</t>
-  </si>
-  <si>
-    <t>備考</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>申請書No.</t>
+    <rPh sb="10" eb="11">
+      <t>カカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>100679178</t>
+  </si>
+  <si>
+    <t>A9Z304600</t>
+  </si>
+  <si>
+    <t>3046</t>
+  </si>
+  <si>
+    <t>3464</t>
+  </si>
+  <si>
+    <t>2019/11/16</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2019/11/17</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>補填＋問屋マージン</t>
+  </si>
+  <si>
+    <t>拡売+マージン減額</t>
+  </si>
+  <si>
+    <t>0009845</t>
+  </si>
+  <si>
+    <t>0061778</t>
+  </si>
+  <si>
+    <t>0019200</t>
+  </si>
+  <si>
+    <t>0062100</t>
+  </si>
+  <si>
+    <t>顧客コード、控除用チェーンコード、企業コードのいずれか1つが入力必須</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>控除用チェーンコード</t>
-    <rPh sb="0" eb="2">
-      <t>コウジョ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>顧客コード、控除用チェーンコード、企業コードのいずれか1つが入力必須</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>控除用チェーンコード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力必須
+整数チェック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>控除税額</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力必須
+整数チェック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>100679179</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3465</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支払済フラグ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支払済フラグ</t>
+    <rPh sb="0" eb="3">
+      <t>シハライスミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NULLまたはY (Y以外の値はNULLとみなす)</t>
+    <rPh sb="11" eb="13">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アタイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -352,10 +550,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -384,9 +583,23 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF00FF"/>
+      <color rgb="FF008000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -436,7 +649,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -475,21 +688,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -592,19 +790,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -638,17 +823,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -799,11 +973,322 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF00FF"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF00FF"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF00FF"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF00FF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF00FF"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF00FF"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF00FF"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF00FF"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF00FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF00FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF00FF"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF00FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF00FF"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF00FF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF00FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF00FF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF00FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF00FF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF00FF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF00FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -813,24 +1298,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -839,97 +1309,200 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="4" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="4" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -939,10 +1512,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF00FF"/>
+      <color rgb="FF008000"/>
+      <color rgb="FF339966"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFFFFF99"/>
       <color rgb="FFCCECFF"/>
-      <color rgb="FFFF00FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -962,13 +1537,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>83343</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>416720</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1036,13 +1611,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>854846</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>116683</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>369093</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1110,25 +1685,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>23814</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:colOff>23810</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>94624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>321469</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:colOff>11903</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>70811</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="角丸四角形 5"/>
+        <xdr:cNvPr id="8" name="角丸四角形 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6691314" y="4024314"/>
-          <a:ext cx="4845843" cy="309562"/>
+          <a:off x="6681785" y="4323724"/>
+          <a:ext cx="4845843" cy="319087"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1171,26 +1746,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>185685</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>114302</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1059627</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>92869</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>92867</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="角丸四角形吹き出し 6"/>
+        <xdr:cNvPr id="9" name="角丸四角形吹き出し 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="12056216" y="3209927"/>
-          <a:ext cx="2064567" cy="311942"/>
+          <a:off x="16425810" y="4281488"/>
+          <a:ext cx="2933752" cy="311942"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -1235,12 +1810,115 @@
             <a:t>No.</a:t>
           </a:r>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>支払済フラグ</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>の入力は任意</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>866752</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>116683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>845343</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形吹き出し 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10463190" y="4105277"/>
+          <a:ext cx="3836216" cy="311942"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -32269"/>
+            <a:gd name="adj2" fmla="val -169024"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:extLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>補填、問屋マージン、拡売、問屋マージン減額の入力は任意</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF00FF"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="+mn-lt"/>
@@ -1630,201 +2308,250 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:D18"/>
+  <dimension ref="B2:D23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.625" style="3" customWidth="1"/>
     <col min="3" max="3" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:4">
+      <c r="B2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="68" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="13">
+      <c r="D2" s="71" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D3" s="113" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="114"/>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="8">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="114"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="8">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="70" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="27">
+      <c r="B7" s="8">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="40.5">
+      <c r="B10" s="8">
+        <v>8</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B5" s="13">
+    <row r="11" spans="2:4" ht="27">
+      <c r="B11" s="8">
+        <v>9</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="27">
+      <c r="B12" s="8">
+        <v>10</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="27.75" thickBot="1">
+      <c r="B13" s="94">
+        <v>11</v>
+      </c>
+      <c r="C13" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="66"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B6" s="13">
+      <c r="D13" s="96" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="27.75" thickTop="1">
+      <c r="B14" s="97">
+        <v>12</v>
+      </c>
+      <c r="C14" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="99" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="27">
+      <c r="B15" s="100">
+        <v>13</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="101" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="27">
+      <c r="B16" s="100">
+        <v>14</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="101" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="27.75" thickBot="1">
+      <c r="B17" s="102">
+        <v>15</v>
+      </c>
+      <c r="C17" s="103" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="104" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="14.25" thickTop="1">
+      <c r="B18" s="105">
+        <v>16</v>
+      </c>
+      <c r="C18" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="67"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B7" s="13">
-        <v>4</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="D18" s="107" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="B8" s="13">
-        <v>5</v>
-      </c>
-      <c r="C8" s="16" t="s">
+    <row r="19" spans="2:4" ht="27">
+      <c r="B19" s="8">
+        <v>17</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="8">
+        <v>18</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="14.25" thickBot="1">
+      <c r="B21" s="94">
+        <v>19</v>
+      </c>
+      <c r="C21" s="108" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="109" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="15" thickTop="1" thickBot="1">
+      <c r="B22" s="110">
         <v>20</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B9" s="13">
-        <v>6</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B10" s="13">
-        <v>7</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B11" s="13">
-        <v>8</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="13">
-        <v>9</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="13">
-        <v>10</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="B14" s="13">
-        <v>13</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B15" s="13">
-        <v>14</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="B16" s="13">
-        <v>15</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B17" s="13">
-        <v>16</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B18" s="13">
-        <v>17</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
+      <c r="C22" s="111" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="112" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="14.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D3:D5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1837,743 +2564,1123 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:P28"/>
+  <dimension ref="B1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.625" style="2" customWidth="1"/>
     <col min="2" max="3" width="15.625" style="2" customWidth="1"/>
     <col min="4" max="5" width="12.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="12.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="6.625" style="2" customWidth="1"/>
     <col min="10" max="10" width="12.625" style="4" customWidth="1"/>
     <col min="11" max="11" width="6.625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="12.625" style="4" customWidth="1"/>
-    <col min="13" max="14" width="8.625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="15.625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="15.625" style="4" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="2"/>
+    <col min="12" max="16" width="12.625" style="4" customWidth="1"/>
+    <col min="17" max="18" width="8.625" style="4" customWidth="1"/>
+    <col min="19" max="20" width="15.625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="3.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:16" ht="108.75" x14ac:dyDescent="0.15">
-      <c r="B2" s="23" t="s">
+    <row r="1" spans="2:21" ht="14.25" thickBot="1"/>
+    <row r="2" spans="2:21" ht="102">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="Q2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="T2" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21">
+      <c r="B3" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="G3" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="76">
+        <v>170</v>
+      </c>
+      <c r="K3" s="80">
+        <v>24</v>
+      </c>
+      <c r="L3" s="90">
+        <v>65</v>
+      </c>
+      <c r="M3" s="84"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="92">
+        <v>5</v>
+      </c>
+      <c r="S3" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="U3" s="55"/>
+    </row>
+    <row r="4" spans="2:21">
+      <c r="B4" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="76">
+        <v>170</v>
+      </c>
+      <c r="K4" s="80">
+        <v>24</v>
+      </c>
+      <c r="L4" s="90">
+        <v>65</v>
+      </c>
+      <c r="M4" s="84"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="92">
+        <v>5</v>
+      </c>
+      <c r="S4" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="U4" s="55"/>
+    </row>
+    <row r="5" spans="2:21">
+      <c r="B5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="76">
+        <v>1440</v>
+      </c>
+      <c r="K5" s="80">
+        <v>18</v>
+      </c>
+      <c r="L5" s="90">
+        <v>337</v>
+      </c>
+      <c r="M5" s="84"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="92">
+        <v>27</v>
+      </c>
+      <c r="S5" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="48"/>
+      <c r="U5" s="55"/>
+    </row>
+    <row r="6" spans="2:21">
+      <c r="B6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="76">
+        <v>1368</v>
+      </c>
+      <c r="K6" s="80">
+        <v>4</v>
+      </c>
+      <c r="L6" s="90">
+        <v>71</v>
+      </c>
+      <c r="M6" s="84"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="92">
+        <v>6</v>
+      </c>
+      <c r="S6" s="27"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="55"/>
+    </row>
+    <row r="7" spans="2:21">
+      <c r="B7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="G7" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="76">
+        <v>125</v>
+      </c>
+      <c r="K7" s="80">
+        <v>36</v>
+      </c>
+      <c r="L7" s="90">
+        <v>77</v>
+      </c>
+      <c r="M7" s="84"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" s="92">
+        <v>6</v>
+      </c>
+      <c r="S7" s="27"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="55"/>
+    </row>
+    <row r="8" spans="2:21">
+      <c r="B8" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="76">
+        <v>125</v>
+      </c>
+      <c r="K8" s="80">
+        <v>36</v>
+      </c>
+      <c r="L8" s="90">
+        <v>77</v>
+      </c>
+      <c r="M8" s="84"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="92">
+        <v>6</v>
+      </c>
+      <c r="S8" s="27"/>
+      <c r="T8" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="U8" s="55"/>
+    </row>
+    <row r="9" spans="2:21">
+      <c r="B9" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="76">
+        <v>1152</v>
+      </c>
+      <c r="K9" s="80">
+        <v>18</v>
+      </c>
+      <c r="L9" s="90">
+        <v>270</v>
+      </c>
+      <c r="M9" s="84"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" s="92">
+        <v>22</v>
+      </c>
+      <c r="S9" s="27"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="55"/>
+    </row>
+    <row r="10" spans="2:21">
+      <c r="B10" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="77">
+        <v>311.7</v>
+      </c>
+      <c r="K10" s="81">
+        <v>-5</v>
+      </c>
+      <c r="L10" s="91">
+        <v>-1559</v>
+      </c>
+      <c r="M10" s="84">
+        <v>-425</v>
+      </c>
+      <c r="N10" s="85">
+        <v>-1134</v>
+      </c>
+      <c r="O10" s="85"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="R10" s="93">
+        <v>-125</v>
+      </c>
+      <c r="S10" s="65"/>
+      <c r="T10" s="67"/>
+      <c r="U10" s="55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21">
+      <c r="B11" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="60"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="77">
+        <v>311.7</v>
+      </c>
+      <c r="K11" s="81">
+        <v>5</v>
+      </c>
+      <c r="L11" s="91">
+        <v>1559</v>
+      </c>
+      <c r="M11" s="84">
+        <v>425</v>
+      </c>
+      <c r="N11" s="85">
+        <v>1134</v>
+      </c>
+      <c r="O11" s="85"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="R11" s="93">
+        <v>125</v>
+      </c>
+      <c r="S11" s="65"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21">
+      <c r="B12" s="59"/>
+      <c r="C12" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="77">
+        <v>9.15</v>
+      </c>
+      <c r="K12" s="81">
+        <v>234</v>
+      </c>
+      <c r="L12" s="91">
+        <v>2141</v>
+      </c>
+      <c r="M12" s="84"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="R12" s="93">
+        <v>171</v>
+      </c>
+      <c r="S12" s="65"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="55"/>
+    </row>
+    <row r="13" spans="2:21">
+      <c r="B13" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="60"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="77">
+        <v>7.36</v>
+      </c>
+      <c r="K13" s="81">
+        <v>2880</v>
+      </c>
+      <c r="L13" s="91">
+        <v>21197</v>
+      </c>
+      <c r="M13" s="84"/>
+      <c r="N13" s="85"/>
+      <c r="O13" s="85">
+        <v>23040.2</v>
+      </c>
+      <c r="P13" s="86">
+        <v>-1843.2</v>
+      </c>
+      <c r="Q13" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="R13" s="93">
+        <v>1696</v>
+      </c>
+      <c r="S13" s="65"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="55"/>
+    </row>
+    <row r="14" spans="2:21">
+      <c r="B14" s="59"/>
+      <c r="C14" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="61"/>
+      <c r="E14" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="77">
+        <v>135</v>
+      </c>
+      <c r="K14" s="81">
+        <v>17</v>
+      </c>
+      <c r="L14" s="91">
+        <v>2295</v>
+      </c>
+      <c r="M14" s="84"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="R14" s="93">
+        <v>184</v>
+      </c>
+      <c r="S14" s="65"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="55"/>
+    </row>
+    <row r="15" spans="2:21">
+      <c r="B15" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="P2" s="28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B3" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="33" t="s">
+      <c r="F15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="31"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="90">
+        <v>12000</v>
+      </c>
+      <c r="M15" s="84"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="R15" s="92">
+        <v>1200</v>
+      </c>
+      <c r="S15" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="T15" s="49"/>
+      <c r="U15" s="56"/>
+    </row>
+    <row r="16" spans="2:21">
+      <c r="B16" s="24"/>
+      <c r="C16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="31"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="90">
+        <v>24000</v>
+      </c>
+      <c r="M16" s="84"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="86"/>
+      <c r="Q16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="R16" s="92">
+        <v>1920</v>
+      </c>
+      <c r="S16" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="T16" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="U16" s="56"/>
+    </row>
+    <row r="17" spans="2:21" ht="14.25" thickBot="1">
+      <c r="B17" s="32"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="36">
-        <v>170</v>
-      </c>
-      <c r="K3" s="37">
-        <v>24</v>
-      </c>
-      <c r="L3" s="38">
-        <v>65</v>
-      </c>
-      <c r="M3" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="60">
-        <v>5</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="62">
-        <v>1234567890</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B4" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="36">
-        <v>170</v>
-      </c>
-      <c r="K4" s="37">
-        <v>24</v>
-      </c>
-      <c r="L4" s="38">
-        <v>65</v>
-      </c>
-      <c r="M4" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="60">
-        <v>5</v>
-      </c>
-      <c r="O4" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" s="62" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B5" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="58" t="s">
+      <c r="F17" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="34"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="90">
+        <v>36000</v>
+      </c>
+      <c r="M17" s="87"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="R17" s="92">
+        <v>2880</v>
+      </c>
+      <c r="S17" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="T17" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="36">
-        <v>1440</v>
-      </c>
-      <c r="K5" s="37">
-        <v>18</v>
-      </c>
-      <c r="L5" s="38">
-        <v>337</v>
-      </c>
-      <c r="M5" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="60">
-        <v>27</v>
-      </c>
-      <c r="O5" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" s="62"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B6" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="36">
-        <v>1368</v>
-      </c>
-      <c r="K6" s="37">
-        <v>4</v>
-      </c>
-      <c r="L6" s="38">
-        <v>71</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="60">
-        <v>6</v>
-      </c>
-      <c r="O6" s="34"/>
-      <c r="P6" s="62"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B7" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="36">
-        <v>125</v>
-      </c>
-      <c r="K7" s="37">
-        <v>36</v>
-      </c>
-      <c r="L7" s="38">
-        <v>77</v>
-      </c>
-      <c r="M7" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" s="60">
-        <v>6</v>
-      </c>
-      <c r="O7" s="34"/>
-      <c r="P7" s="62"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B8" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="36">
-        <v>125</v>
-      </c>
-      <c r="K8" s="37">
-        <v>36</v>
-      </c>
-      <c r="L8" s="38">
-        <v>77</v>
-      </c>
-      <c r="M8" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8" s="60">
-        <v>6</v>
-      </c>
-      <c r="O8" s="34"/>
-      <c r="P8" s="62" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B9" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="36">
-        <v>1152</v>
-      </c>
-      <c r="K9" s="37">
-        <v>18</v>
-      </c>
-      <c r="L9" s="38">
-        <v>270</v>
-      </c>
-      <c r="M9" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="N9" s="60">
-        <v>22</v>
-      </c>
-      <c r="O9" s="34"/>
-      <c r="P9" s="62"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B10" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="38">
-        <v>12000</v>
-      </c>
-      <c r="M10" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="N10" s="60">
-        <v>1200</v>
-      </c>
-      <c r="O10" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="P10" s="63"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B11" s="31"/>
-      <c r="C11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="38">
-        <v>24000</v>
-      </c>
-      <c r="M11" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="60">
-        <v>1920</v>
-      </c>
-      <c r="O11" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="P11" s="63" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="44"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="46"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="38">
-        <v>36000</v>
-      </c>
-      <c r="M12" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="N12" s="60">
-        <v>2880</v>
-      </c>
-      <c r="O12" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="P12" s="64" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="61"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B14" s="52"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="40"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B15" s="52"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="40"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B16" s="52"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="40"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B17" s="52"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="40"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B18" s="52"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="40"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B19" s="52"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="40"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B20" s="52"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="40"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B21" s="52"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="40"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B22" s="52"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="40"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B23" s="52"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="40"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B24" s="52"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="40"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B25" s="52"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="40"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B26" s="52"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="40"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B27" s="52"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="40"/>
-    </row>
-    <row r="28" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="53"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="56"/>
+      <c r="U17" s="57"/>
+    </row>
+    <row r="18" spans="2:21">
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="46"/>
+    </row>
+    <row r="19" spans="2:21">
+      <c r="B19" s="38"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="30"/>
+    </row>
+    <row r="20" spans="2:21">
+      <c r="B20" s="38"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="30"/>
+    </row>
+    <row r="21" spans="2:21">
+      <c r="B21" s="38"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="30"/>
+    </row>
+    <row r="22" spans="2:21">
+      <c r="B22" s="38"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="30"/>
+    </row>
+    <row r="23" spans="2:21">
+      <c r="B23" s="38"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="30"/>
+    </row>
+    <row r="24" spans="2:21">
+      <c r="B24" s="38"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="30"/>
+    </row>
+    <row r="25" spans="2:21">
+      <c r="B25" s="38"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="30"/>
+    </row>
+    <row r="26" spans="2:21">
+      <c r="B26" s="38"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="30"/>
+    </row>
+    <row r="27" spans="2:21">
+      <c r="B27" s="38"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="30"/>
+    </row>
+    <row r="28" spans="2:21">
+      <c r="B28" s="38"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="30"/>
+    </row>
+    <row r="29" spans="2:21">
+      <c r="B29" s="38"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="30"/>
+    </row>
+    <row r="30" spans="2:21">
+      <c r="B30" s="38"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="52"/>
+      <c r="U30" s="30"/>
+    </row>
+    <row r="31" spans="2:21">
+      <c r="B31" s="38"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="30"/>
+    </row>
+    <row r="32" spans="2:21">
+      <c r="B32" s="38"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="52"/>
+      <c r="U32" s="30"/>
+    </row>
+    <row r="33" spans="2:21" ht="14.25" thickBot="1">
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="42"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="O13:P29 L13:L29 M3:N9 P4:P12 B3:B10 L3 L4 L5:L9 B13:B29 M10:M12 C11:C12 C4 C3 C5:C10 D10:D12 H5:H9 H4 H3 F13:H29 I5:J9 I4:J4 I3:J3 I13:J29 E3:E12" numberStoredAsText="1"/>
+    <ignoredError sqref="L18:L34 Q3:R9 L3:L9 B18:B34 Q12:Q17 C17 D17 H3:J9 F18:J34 E17 S18:S34 T15:T17 T3:T9 E3:E9 C3:C9 B3:B9 E15:E16 D15:D16 C15:C16 B15 B13:E14 B16 H11:H14 Q11 B10:J10 O10:Q10 S10:T10 C11:D11 B12:E12 B11 F12:G12 E11:G11" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/20_営業/03_個別開発/MD050/MD050_COK_024_A20_控除データアップロード（補足資料）.xlsx
+++ b/20_営業/03_個別開発/MD050/MD050_COK_024_A20_控除データアップロード（補足資料）.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_18201～18300\E_本稼動_18280【収益認識】控除データアップロード機能改修\20_成果物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Acomsv01\障害対応\E_本稼動_18501～18600\E_本稼動_18519【収益認識】入金相殺の消込（AR連携）\20_成果物\20.後行リリース分\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="18990" windowHeight="11880" tabRatio="806"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="18996" windowHeight="11880" tabRatio="806"/>
   </bookViews>
   <sheets>
     <sheet name="販売控除データ 項目定義" sheetId="31" r:id="rId1"/>
@@ -333,6 +333,130 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>備考</t>
+    <rPh sb="0" eb="1">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>任意 (データ種類に関わらず任意で指定可)
+※小数2桁まで指定可</t>
+    <rPh sb="7" eb="9">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>100679178</t>
+  </si>
+  <si>
+    <t>A9Z304600</t>
+  </si>
+  <si>
+    <t>3046</t>
+  </si>
+  <si>
+    <t>3464</t>
+  </si>
+  <si>
+    <t>2019/11/16</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2019/11/17</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>補填＋問屋マージン</t>
+  </si>
+  <si>
+    <t>拡売+マージン減額</t>
+  </si>
+  <si>
+    <t>0009845</t>
+  </si>
+  <si>
+    <t>0061778</t>
+  </si>
+  <si>
+    <t>0019200</t>
+  </si>
+  <si>
+    <t>0062100</t>
+  </si>
+  <si>
+    <t>顧客コード、控除用チェーンコード、企業コードのいずれか1つが入力必須</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>控除用チェーンコード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力必須
+整数チェック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>控除税額</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力必須
+整数チェック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>100679179</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3465</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支払済フラグ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支払済フラグ</t>
+    <rPh sb="0" eb="3">
+      <t>シハライスミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NULLまたはY (Y以外の値はNULLとみなす)</t>
+    <rPh sb="11" eb="13">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">任意
 </t>
@@ -340,7 +464,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF008000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
@@ -390,13 +513,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>備考</t>
-    <rPh sb="0" eb="1">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">任意
 </t>
@@ -404,7 +520,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF00FF"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
@@ -428,133 +543,15 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
-  <si>
-    <t>任意 (データ種類に関わらず任意で指定可)
-※小数2桁まで指定可</t>
-    <rPh sb="7" eb="9">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>カカ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>100679178</t>
-  </si>
-  <si>
-    <t>A9Z304600</t>
-  </si>
-  <si>
-    <t>3046</t>
-  </si>
-  <si>
-    <t>3464</t>
-  </si>
-  <si>
-    <t>2019/11/16</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2019/11/17</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>補填＋問屋マージン</t>
-  </si>
-  <si>
-    <t>拡売+マージン減額</t>
-  </si>
-  <si>
-    <t>0009845</t>
-  </si>
-  <si>
-    <t>0061778</t>
-  </si>
-  <si>
-    <t>0019200</t>
-  </si>
-  <si>
-    <t>0062100</t>
-  </si>
-  <si>
-    <t>顧客コード、控除用チェーンコード、企業コードのいずれか1つが入力必須</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>控除用チェーンコード</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>入力必須
-整数チェック</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>控除税額</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>入力必須
-整数チェック</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>100679179</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>3465</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>支払済フラグ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>支払済フラグ</t>
-    <rPh sb="0" eb="3">
-      <t>シハライスミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NULLまたはY (Y以外の値はNULLとみなす)</t>
-    <rPh sb="11" eb="13">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -585,21 +582,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF00FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF008000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF008000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -649,7 +631,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1119,184 +1101,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFF00FF"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFF00FF"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFF00FF"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFF00FF"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFF00FF"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFF00FF"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFF00FF"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFF00FF"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFF00FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFF00FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFF00FF"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFF00FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFF00FF"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFF00FF"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFF00FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFF00FF"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFF00FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFF00FF"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFF00FF"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFF00FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1381,54 +1195,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="90"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1437,10 +1219,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="4" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="4" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1450,52 +1228,33 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1824,7 +1583,7 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
-                <a:srgbClr val="FF00FF"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -1834,8 +1593,16 @@
             <a:t>支払済フラグ</a:t>
           </a:r>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の入力</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>の入力は任意</a:t>
+            <a:t>は任意</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -1911,19 +1678,221 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
-                <a:srgbClr val="FF00FF"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>補填、問屋マージン、拡売、問屋マージン減額の入力は任意</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
             <a:solidFill>
-              <a:srgbClr val="FF00FF"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>714375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1257300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="四角形吹き出し 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9277350" y="885825"/>
+          <a:ext cx="1162050" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -38046"/>
+            <a:gd name="adj2" fmla="val -72588"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>セル書式を標準に変更</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+            <a:solidFill>
+              <a:srgbClr val="FF00FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CSV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>保存時に不正なスペースが入らないようにするため。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+            <a:solidFill>
+              <a:srgbClr val="FF00FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>742950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="四角形吹き出し 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14144625" y="914400"/>
+          <a:ext cx="1162050" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -38046"/>
+            <a:gd name="adj2" fmla="val -72588"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>セル書式を標準に変更</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+            <a:solidFill>
+              <a:srgbClr val="FF00FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CSV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>保存時に不正なスペースが入らないようにするため。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+            <a:solidFill>
+              <a:srgbClr val="FF00FF"/>
+            </a:solidFill>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -2308,247 +2277,248 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:D23"/>
+  <dimension ref="B2:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" style="87" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.33203125" style="88" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="86" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="89" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="90"/>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="7">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="90"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="7">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="74" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="26.4">
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="7">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="7">
+        <v>7</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="39.6">
+      <c r="B10" s="7">
+        <v>8</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="26.4">
+      <c r="B11" s="7">
+        <v>9</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="26.4">
+      <c r="B12" s="7">
+        <v>10</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="26.4">
+      <c r="B13" s="71">
+        <v>11</v>
+      </c>
+      <c r="C13" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="26.4">
+      <c r="B14" s="7">
+        <v>12</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="113" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="8">
-        <v>2</v>
-      </c>
-      <c r="C4" s="9" t="s">
+    <row r="15" spans="2:4" ht="26.4">
+      <c r="B15" s="7">
+        <v>13</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="26.4">
+      <c r="B16" s="7">
+        <v>14</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="26.4">
+      <c r="B17" s="7">
+        <v>15</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="7">
+        <v>16</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="26.4">
+      <c r="B19" s="7">
+        <v>17</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="114"/>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="8">
-        <v>3</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="114"/>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="8">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="70" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="27">
-      <c r="B7" s="8">
-        <v>5</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="D19" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="7">
+        <v>18</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="7">
+        <v>19</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="7">
         <v>20</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="8">
-        <v>6</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="8">
-        <v>7</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="40.5">
-      <c r="B10" s="8">
-        <v>8</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="27">
-      <c r="B11" s="8">
-        <v>9</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="27">
-      <c r="B12" s="8">
-        <v>10</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="27.75" thickBot="1">
-      <c r="B13" s="94">
-        <v>11</v>
-      </c>
-      <c r="C13" s="95" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="96" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="27.75" thickTop="1">
-      <c r="B14" s="97">
-        <v>12</v>
-      </c>
-      <c r="C14" s="98" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="99" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="27">
-      <c r="B15" s="100">
-        <v>13</v>
-      </c>
-      <c r="C15" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="101" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="27">
-      <c r="B16" s="100">
-        <v>14</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="101" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="27.75" thickBot="1">
-      <c r="B17" s="102">
-        <v>15</v>
-      </c>
-      <c r="C17" s="103" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="104" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="14.25" thickTop="1">
-      <c r="B18" s="105">
-        <v>16</v>
-      </c>
-      <c r="C18" s="106" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="107" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="27">
-      <c r="B19" s="8">
-        <v>17</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="8">
-        <v>18</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="14.25" thickBot="1">
-      <c r="B21" s="94">
-        <v>19</v>
-      </c>
-      <c r="C21" s="108" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="109" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="15" thickTop="1" thickBot="1">
-      <c r="B22" s="110">
-        <v>20</v>
-      </c>
-      <c r="C22" s="111" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="112" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="14.25" thickTop="1"/>
+      <c r="C22" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:D5"/>
@@ -2566,1114 +2536,1116 @@
   </sheetPr>
   <dimension ref="B1:U33"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="12.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="6.625" style="4" customWidth="1"/>
-    <col min="12" max="16" width="12.625" style="4" customWidth="1"/>
-    <col min="17" max="18" width="8.625" style="4" customWidth="1"/>
-    <col min="19" max="20" width="15.625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="3.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="15.6640625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="12.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" style="3" customWidth="1"/>
+    <col min="12" max="16" width="12.6640625" style="3" customWidth="1"/>
+    <col min="17" max="18" width="8.6640625" style="3" customWidth="1"/>
+    <col min="19" max="20" width="15.6640625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="3.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="14.25" thickBot="1"/>
-    <row r="2" spans="2:21" ht="102">
-      <c r="B2" s="17" t="s">
+    <row r="1" spans="2:21" ht="13.8" thickBot="1"/>
+    <row r="2" spans="2:21" ht="99.6">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="72" t="s">
+      <c r="L2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="73" t="s">
+      <c r="M2" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="N2" s="74" t="s">
+      <c r="N2" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="74" t="s">
+      <c r="O2" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="P2" s="75" t="s">
+      <c r="P2" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="Q2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="45" t="s">
+      <c r="R2" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="S2" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T2" s="47" t="s">
+      <c r="T2" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="54" t="s">
-        <v>93</v>
+      <c r="U2" s="21" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="2:21">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="44" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="76">
+      <c r="J3" s="59">
         <v>170</v>
       </c>
-      <c r="K3" s="80">
+      <c r="K3" s="62">
         <v>24</v>
       </c>
-      <c r="L3" s="90">
+      <c r="L3" s="75">
         <v>65</v>
       </c>
-      <c r="M3" s="84"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="14" t="s">
+      <c r="M3" s="65"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="92">
+      <c r="R3" s="77">
         <v>5</v>
       </c>
-      <c r="S3" s="27" t="s">
+      <c r="S3" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="48" t="s">
+      <c r="T3" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="U3" s="55"/>
+      <c r="U3" s="53"/>
     </row>
     <row r="4" spans="2:21">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="44" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="76">
+      <c r="J4" s="59">
         <v>170</v>
       </c>
-      <c r="K4" s="80">
+      <c r="K4" s="62">
         <v>24</v>
       </c>
-      <c r="L4" s="90">
+      <c r="L4" s="75">
         <v>65</v>
       </c>
-      <c r="M4" s="84"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="14" t="s">
+      <c r="M4" s="65"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="92">
+      <c r="R4" s="77">
         <v>5</v>
       </c>
-      <c r="S4" s="27" t="s">
+      <c r="S4" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="48" t="s">
+      <c r="T4" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="U4" s="55"/>
+      <c r="U4" s="53"/>
     </row>
     <row r="5" spans="2:21">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="44" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="76">
+      <c r="J5" s="59">
         <v>1440</v>
       </c>
-      <c r="K5" s="80">
+      <c r="K5" s="62">
         <v>18</v>
       </c>
-      <c r="L5" s="90">
+      <c r="L5" s="75">
         <v>337</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="14" t="s">
+      <c r="M5" s="65"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="92">
+      <c r="R5" s="77">
         <v>27</v>
       </c>
-      <c r="S5" s="27" t="s">
+      <c r="S5" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="T5" s="48"/>
-      <c r="U5" s="55"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="53"/>
     </row>
     <row r="6" spans="2:21">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="44" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="76">
+      <c r="J6" s="59">
         <v>1368</v>
       </c>
-      <c r="K6" s="80">
+      <c r="K6" s="62">
         <v>4</v>
       </c>
-      <c r="L6" s="90">
+      <c r="L6" s="75">
         <v>71</v>
       </c>
-      <c r="M6" s="84"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="14" t="s">
+      <c r="M6" s="65"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="92">
+      <c r="R6" s="77">
         <v>6</v>
       </c>
-      <c r="S6" s="27"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="55"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="53"/>
     </row>
     <row r="7" spans="2:21">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="44" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="76">
+      <c r="J7" s="59">
         <v>125</v>
       </c>
-      <c r="K7" s="80">
+      <c r="K7" s="62">
         <v>36</v>
       </c>
-      <c r="L7" s="90">
+      <c r="L7" s="75">
         <v>77</v>
       </c>
-      <c r="M7" s="84"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="86"/>
-      <c r="Q7" s="14" t="s">
+      <c r="M7" s="65"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R7" s="92">
+      <c r="R7" s="77">
         <v>6</v>
       </c>
-      <c r="S7" s="27"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="55"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="53"/>
     </row>
     <row r="8" spans="2:21">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="44" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="76">
+      <c r="J8" s="59">
         <v>125</v>
       </c>
-      <c r="K8" s="80">
+      <c r="K8" s="62">
         <v>36</v>
       </c>
-      <c r="L8" s="90">
+      <c r="L8" s="75">
         <v>77</v>
       </c>
-      <c r="M8" s="84"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="14" t="s">
+      <c r="M8" s="65"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R8" s="92">
+      <c r="R8" s="77">
         <v>6</v>
       </c>
-      <c r="S8" s="27"/>
-      <c r="T8" s="48" t="s">
+      <c r="S8" s="26"/>
+      <c r="T8" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="U8" s="55"/>
+      <c r="U8" s="53"/>
     </row>
     <row r="9" spans="2:21">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="44" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="76">
+      <c r="J9" s="59">
         <v>1152</v>
       </c>
-      <c r="K9" s="80">
+      <c r="K9" s="62">
         <v>18</v>
       </c>
-      <c r="L9" s="90">
+      <c r="L9" s="75">
         <v>270</v>
       </c>
-      <c r="M9" s="84"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="14" t="s">
+      <c r="M9" s="65"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="R9" s="92">
+      <c r="R9" s="77">
         <v>22</v>
       </c>
-      <c r="S9" s="27"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="55"/>
-    </row>
-    <row r="10" spans="2:21">
-      <c r="B10" s="59" t="s">
+      <c r="S9" s="26"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="53"/>
+    </row>
+    <row r="10" spans="2:21" s="82" customFormat="1">
+      <c r="B10" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="59">
+        <v>311.7</v>
+      </c>
+      <c r="K10" s="62">
+        <v>-5</v>
+      </c>
+      <c r="L10" s="75">
+        <v>-1559</v>
+      </c>
+      <c r="M10" s="78">
+        <v>-425</v>
+      </c>
+      <c r="N10" s="79">
+        <v>-1134</v>
+      </c>
+      <c r="O10" s="79"/>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="R10" s="77">
+        <v>-125</v>
+      </c>
+      <c r="S10" s="26"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="81" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" s="82" customFormat="1">
+      <c r="B11" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="59">
+        <v>311.7</v>
+      </c>
+      <c r="K11" s="62">
+        <v>5</v>
+      </c>
+      <c r="L11" s="75">
+        <v>1559</v>
+      </c>
+      <c r="M11" s="78">
+        <v>425</v>
+      </c>
+      <c r="N11" s="79">
+        <v>1134</v>
+      </c>
+      <c r="O11" s="79"/>
+      <c r="P11" s="80"/>
+      <c r="Q11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="R11" s="77">
+        <v>125</v>
+      </c>
+      <c r="S11" s="26"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="81" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" s="82" customFormat="1">
+      <c r="B12" s="23"/>
+      <c r="C12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62" t="s">
+      <c r="F12" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="59">
+        <v>9.15</v>
+      </c>
+      <c r="K12" s="62">
+        <v>234</v>
+      </c>
+      <c r="L12" s="75">
+        <v>2141</v>
+      </c>
+      <c r="M12" s="78"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="R12" s="77">
+        <v>171</v>
+      </c>
+      <c r="S12" s="26"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="81"/>
+    </row>
+    <row r="13" spans="2:21" s="82" customFormat="1">
+      <c r="B13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="65" t="s">
+      <c r="G13" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="66" t="s">
+      <c r="I13" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="59">
+        <v>7.36</v>
+      </c>
+      <c r="K13" s="62">
+        <v>2880</v>
+      </c>
+      <c r="L13" s="75">
+        <v>21197</v>
+      </c>
+      <c r="M13" s="78"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79">
+        <v>23040.2</v>
+      </c>
+      <c r="P13" s="80">
+        <v>-1843.2</v>
+      </c>
+      <c r="Q13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="R13" s="77">
+        <v>1696</v>
+      </c>
+      <c r="S13" s="26"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="81"/>
+    </row>
+    <row r="14" spans="2:21" s="82" customFormat="1">
+      <c r="B14" s="23"/>
+      <c r="C14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="77">
-        <v>311.7</v>
-      </c>
-      <c r="K10" s="81">
-        <v>-5</v>
-      </c>
-      <c r="L10" s="91">
-        <v>-1559</v>
-      </c>
-      <c r="M10" s="84">
-        <v>-425</v>
-      </c>
-      <c r="N10" s="85">
-        <v>-1134</v>
-      </c>
-      <c r="O10" s="85"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="63" t="s">
+      <c r="J14" s="59">
+        <v>135</v>
+      </c>
+      <c r="K14" s="62">
+        <v>17</v>
+      </c>
+      <c r="L14" s="75">
+        <v>2295</v>
+      </c>
+      <c r="M14" s="78"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R10" s="93">
-        <v>-125</v>
-      </c>
-      <c r="S10" s="65"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="55" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21">
-      <c r="B11" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="77">
-        <v>311.7</v>
-      </c>
-      <c r="K11" s="81">
-        <v>5</v>
-      </c>
-      <c r="L11" s="91">
-        <v>1559</v>
-      </c>
-      <c r="M11" s="84">
-        <v>425</v>
-      </c>
-      <c r="N11" s="85">
-        <v>1134</v>
-      </c>
-      <c r="O11" s="85"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="63" t="s">
+      <c r="R14" s="77">
+        <v>184</v>
+      </c>
+      <c r="S14" s="26"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="81"/>
+    </row>
+    <row r="15" spans="2:21">
+      <c r="B15" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="30"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="75">
+        <v>12000</v>
+      </c>
+      <c r="M15" s="65"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="R15" s="77">
+        <v>1200</v>
+      </c>
+      <c r="S15" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="T15" s="48"/>
+      <c r="U15" s="54"/>
+    </row>
+    <row r="16" spans="2:21">
+      <c r="B16" s="23"/>
+      <c r="C16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="30"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="75">
+        <v>24000</v>
+      </c>
+      <c r="M16" s="65"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R11" s="93">
-        <v>125</v>
-      </c>
-      <c r="S11" s="65"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="55" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21">
-      <c r="B12" s="59"/>
-      <c r="C12" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="77">
-        <v>9.15</v>
-      </c>
-      <c r="K12" s="81">
-        <v>234</v>
-      </c>
-      <c r="L12" s="91">
-        <v>2141</v>
-      </c>
-      <c r="M12" s="84"/>
-      <c r="N12" s="85"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="63" t="s">
+      <c r="R16" s="77">
+        <v>1920</v>
+      </c>
+      <c r="S16" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="T16" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="U16" s="54"/>
+    </row>
+    <row r="17" spans="2:21" ht="13.8" thickBot="1">
+      <c r="B17" s="31"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="33"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="75">
+        <v>36000</v>
+      </c>
+      <c r="M17" s="68"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R12" s="93">
-        <v>171</v>
-      </c>
-      <c r="S12" s="65"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="55"/>
-    </row>
-    <row r="13" spans="2:21">
-      <c r="B13" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="77">
-        <v>7.36</v>
-      </c>
-      <c r="K13" s="81">
+      <c r="R17" s="77">
         <v>2880</v>
       </c>
-      <c r="L13" s="91">
-        <v>21197</v>
-      </c>
-      <c r="M13" s="84"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85">
-        <v>23040.2</v>
-      </c>
-      <c r="P13" s="86">
-        <v>-1843.2</v>
-      </c>
-      <c r="Q13" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="R13" s="93">
-        <v>1696</v>
-      </c>
-      <c r="S13" s="65"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="55"/>
-    </row>
-    <row r="14" spans="2:21">
-      <c r="B14" s="59"/>
-      <c r="C14" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="I14" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="77">
-        <v>135</v>
-      </c>
-      <c r="K14" s="81">
-        <v>17</v>
-      </c>
-      <c r="L14" s="91">
-        <v>2295</v>
-      </c>
-      <c r="M14" s="84"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="R14" s="93">
-        <v>184</v>
-      </c>
-      <c r="S14" s="65"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="55"/>
-    </row>
-    <row r="15" spans="2:21">
-      <c r="B15" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="26" t="s">
+      <c r="S17" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="31"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="90">
-        <v>12000</v>
-      </c>
-      <c r="M15" s="84"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="R15" s="92">
-        <v>1200</v>
-      </c>
-      <c r="S15" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="T15" s="49"/>
-      <c r="U15" s="56"/>
-    </row>
-    <row r="16" spans="2:21">
-      <c r="B16" s="24"/>
-      <c r="C16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="90">
-        <v>24000</v>
-      </c>
-      <c r="M16" s="84"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="R16" s="92">
-        <v>1920</v>
-      </c>
-      <c r="S16" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="T16" s="49" t="s">
+      <c r="T17" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="U16" s="56"/>
-    </row>
-    <row r="17" spans="2:21" ht="14.25" thickBot="1">
-      <c r="B17" s="32"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="34"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="90">
-        <v>36000</v>
-      </c>
-      <c r="M17" s="87"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="88"/>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="R17" s="92">
-        <v>2880</v>
-      </c>
-      <c r="S17" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="T17" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="U17" s="57"/>
+      <c r="U17" s="55"/>
     </row>
     <row r="18" spans="2:21">
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="46"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="45"/>
     </row>
     <row r="19" spans="2:21">
-      <c r="B19" s="38"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="30"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="29"/>
     </row>
     <row r="20" spans="2:21">
-      <c r="B20" s="38"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="30"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="29"/>
     </row>
     <row r="21" spans="2:21">
-      <c r="B21" s="38"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="30"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="29"/>
     </row>
     <row r="22" spans="2:21">
-      <c r="B22" s="38"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="52"/>
-      <c r="U22" s="30"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="29"/>
     </row>
     <row r="23" spans="2:21">
-      <c r="B23" s="38"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="30"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="29"/>
     </row>
     <row r="24" spans="2:21">
-      <c r="B24" s="38"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="30"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="29"/>
     </row>
     <row r="25" spans="2:21">
-      <c r="B25" s="38"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="30"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="29"/>
     </row>
     <row r="26" spans="2:21">
-      <c r="B26" s="38"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="30"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="29"/>
     </row>
     <row r="27" spans="2:21">
-      <c r="B27" s="38"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="30"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="29"/>
     </row>
     <row r="28" spans="2:21">
-      <c r="B28" s="38"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="30"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="29"/>
     </row>
     <row r="29" spans="2:21">
-      <c r="B29" s="38"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="52"/>
-      <c r="U29" s="30"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="29"/>
     </row>
     <row r="30" spans="2:21">
-      <c r="B30" s="38"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="52"/>
-      <c r="U30" s="30"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="29"/>
     </row>
     <row r="31" spans="2:21">
-      <c r="B31" s="38"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="30"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="29"/>
     </row>
     <row r="32" spans="2:21">
-      <c r="B32" s="38"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="30"/>
-    </row>
-    <row r="33" spans="2:21" ht="14.25" thickBot="1">
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="42"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="29"/>
+    </row>
+    <row r="33" spans="2:21" ht="13.8" thickBot="1">
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="76"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="41"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
